--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T16:18:46+00:00</t>
+    <t>2023-09-11T14:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-11T14:36:20+00:00</t>
+    <t>2023-09-21T13:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-21T13:09:16+00:00</t>
+    <t>2023-09-28T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T19:00:02+00:00</t>
+    <t>2023-10-02T12:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T12:13:21+00:00</t>
+    <t>2023-10-04T08:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T08:03:23+00:00</t>
+    <t>2023-10-05T15:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:17:50+00:00</t>
+    <t>2023-10-10T19:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:35:45+00:00</t>
+    <t>2023-10-10T19:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:44:47+00:00</t>
+    <t>2023-10-11T18:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:07:13+00:00</t>
+    <t>2023-10-12T12:56:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:56:35+00:00</t>
+    <t>2023-10-12T14:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T14:17:28+00:00</t>
+    <t>2023-10-12T18:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T18:56:25+00:00</t>
+    <t>2023-10-16T11:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T11:32:34+00:00</t>
+    <t>2023-10-16T15:04:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T15:04:26+00:00</t>
+    <t>2023-10-17T07:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T07:36:35+00:00</t>
+    <t>2023-10-18T09:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:10:45+00:00</t>
+    <t>2023-10-18T09:59:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T09:59:58+00:00</t>
+    <t>2023-10-30T06:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T06:51:40+00:00</t>
+    <t>2023-10-30T14:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T14:50:06+00:00</t>
+    <t>2023-10-31T07:29:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T07:29:19+00:00</t>
+    <t>2023-11-02T14:53:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:53:48+00:00</t>
+    <t>2023-11-02T15:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T15:29:05+00:00</t>
+    <t>2023-11-02T16:07:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:07:15+00:00</t>
+    <t>2023-11-02T16:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:13:26+00:00</t>
+    <t>2023-11-06T17:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T13:21:24+00:00</t>
+    <t>2023-11-13T14:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:25:45+00:00</t>
+    <t>2023-11-13T15:09:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:09:52+00:00</t>
+    <t>2023-11-13T17:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T17:03:00+00:00</t>
+    <t>2023-11-14T19:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T19:51:51+00:00</t>
+    <t>2023-11-28T16:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T16:40:15+00:00</t>
+    <t>2023-11-29T13:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:44:06+00:00</t>
+    <t>2023-11-29T14:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:01:28+00:00</t>
+    <t>2023-11-29T14:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T14:08:43+00:00</t>
+    <t>2023-11-29T14:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
